--- a/Marcas.xlsx
+++ b/Marcas.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R7b6fbb5566fb4583"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R50c72f0f63954eb1"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
   </x:si>
@@ -122,6 +122,66 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">%M0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Salir</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">A1_Manual</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M1000.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F1_Maunal</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M1000.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">F2_E6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M233.7</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -591,6 +651,326 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="14">
+      <x:c r="A14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/Marcas.xlsx
+++ b/Marcas.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R50c72f0f63954eb1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Ra3ae3cbe6a78430b"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
   </x:si>
@@ -182,6 +182,12 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">%M233.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">M1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M2000.1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -971,6 +977,38 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>